--- a/Assets/StreamingAssets/TemFiles/信息网络安全监控报表.xlsx
+++ b/Assets/StreamingAssets/TemFiles/信息网络安全监控报表.xlsx
@@ -9,9 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9300" tabRatio="772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9300" tabRatio="772" activeTab="0"/>
   </bookViews>
   <sheets>
+    <sheet name="10.07信息网络安全监控报表" sheetId="27" r:id="rId25"/>
+    <sheet name="10.06信息网络安全监控报表" sheetId="26" r:id="rId24"/>
     <sheet name="09.21信息网络安全监控报表" sheetId="25" r:id="rId1"/>
     <sheet name="09.20信息网络安全监控报表  " sheetId="23" r:id="rId2"/>
     <sheet name="09.19信息网络安全监控报表 " sheetId="22" r:id="rId3"/>
@@ -34,17 +36,17 @@
     <sheet name="09.02信息网络安全监控报表" sheetId="5" r:id="rId20"/>
     <sheet name="09.01信息网络安全监控报表" sheetId="6" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>信息网络安全监控报表(9月17日-9月18日)</t>
   </si>
   <si>
-    <t>监控人员:张钰琪 王富民        填表人员: 张钰琪</t>
+    <t xml:space="preserve">监控人员:张钰琪 王富民        填表人员: 张钰琪</t>
   </si>
   <si>
     <t>序号</t>
@@ -123,7 +125,7 @@
     <t>其它异常情况</t>
   </si>
   <si>
-    <t>说明: 
+    <t xml:space="preserve">说明: 
 1、监控人员负责当天24小时监控信息网络安全，并根据监测信息及时分析、判断及处理，每天上午8点前填报此表;
 2、巡检设备包括各防火墙、负载均衡、专线、VPN、上网行为分析、杀毒监测等运行情况;
 3、监控人员对于重大安全威胁进行及时处理，如遇重大网络安全攻击，及时通知设备管理部。</t>
@@ -132,7 +134,7 @@
     <t>信息网络安全监控报表(9月3日-9月4日)</t>
   </si>
   <si>
-    <t>监控人员: 王富民 张钰琪       填表人员: 张钰琪</t>
+    <t xml:space="preserve">监控人员: 王富民 张钰琪       填表人员: 张钰琪</t>
   </si>
   <si>
     <t>主机对外攻击：172.21.23.177、172.21.3.227、172.21.81.151；</t>
@@ -150,7 +152,7 @@
     <t>恶意隧道通信：172.26.3.39；</t>
   </si>
   <si>
-    <t>监控人员: 蒋传信  张纪林      填表人员: 张纪林</t>
+    <t xml:space="preserve">监控人员: 蒋传信  张纪林      填表人员: 张纪林</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.21.23.177(总部)、172.21.3.227(总部)、172.21.59.200(总部)
@@ -176,7 +178,7 @@
     <t>信息网络安全监控报表(9月20日-9月21日)</t>
   </si>
   <si>
-    <t>监控人员: 史天宇 庄光兵      填表人员: 史天宇</t>
+    <t xml:space="preserve">监控人员: 史天宇 庄光兵      填表人员: 史天宇</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.21.23.177、172.21.3.227、172.21.82.179
@@ -192,10 +194,27 @@
 </t>
   </si>
   <si>
+    <t>信息网络安全监控报表(10月5日-10月6日)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">监控人员:        填表人员:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主机对外攻击:172.23.23.149(总部)、172.21.3.227(总部)、172.23.23.125(总部)
+</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">内网横向探测:192.168.1.64(总部)
+</t>
+  </si>
+  <si>
     <t>信息网络安全监控报表(9月19日-9月20日)</t>
   </si>
   <si>
-    <t>监控人员:展雪洁、牛树冠       填表人员: 展雪洁</t>
+    <t xml:space="preserve">监控人员:展雪洁、牛树冠       填表人员: 展雪洁</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.21.23.177(总部)、172.21.3.227(总部)、172.23.19.23(总部)
@@ -239,7 +258,7 @@
     <t>存在Nmap扫描</t>
   </si>
   <si>
-    <t>172.26.7.140
+    <t xml:space="preserve">172.26.7.140
 172.23.15.139
 172.26.3.39
 172.26.27.85
@@ -274,7 +293,7 @@
     <t>多次尝试登录视频监控系统新平台。</t>
   </si>
   <si>
-    <t>恶意隧道通信：172.26.3.39；
+    <t xml:space="preserve">恶意隧道通信：172.26.3.39；
 可疑出站攻击：172.21.23.177、172.23.23.45、172.21.59.200、172.21.82.179、172.21.3.227
 可疑内网爆破：172.26.7.140</t>
   </si>
@@ -286,10 +305,10 @@
     <t>信息网络安全监控报表(9月13日-9月14日)</t>
   </si>
   <si>
-    <t>监控人员:张凯  邱雪     填表人员: 张凯</t>
-  </si>
-  <si>
-    <t>主机感染恶意程序：172.25.29.155
+    <t xml:space="preserve">监控人员:张凯  邱雪     填表人员: 张凯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主机感染恶意程序：172.25.29.155
 主机对外攻击:172.21.23.177、172.21.15.49、172.21.5.29、172.21.3.227
 172.22.39.39、172.23.19.23、172.23.5.128、172.22.43.22</t>
   </si>
@@ -297,7 +316,7 @@
     <t>信息网络安全监控报表(9月14日-9月15日)</t>
   </si>
   <si>
-    <t>监控人员:展雪洁、李浩杰     填表人员: 展雪洁</t>
+    <t xml:space="preserve">监控人员:展雪洁、李浩杰     填表人员: 展雪洁</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.21.23.177(总部)、172.21.3.227(总部)、172.23.19.111(总部)
@@ -324,7 +343,7 @@
     <t>信息网络安全监控报表(9月15日-9月16日)</t>
   </si>
   <si>
-    <t>监控人员:  史天宇  庄光兵   填表人员: 史天宇</t>
+    <t xml:space="preserve">监控人员:  史天宇  庄光兵   填表人员: 史天宇</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.22.43.164、172.21.82.179、172.21.3.227
@@ -338,7 +357,7 @@
     <t>信息网络安全监控报表(9月16日-9月17日)</t>
   </si>
   <si>
-    <t>监控人员:曹世举  范成        填表人员: 曹世举</t>
+    <t xml:space="preserve">监控人员:曹世举  范成        填表人员: 曹世举</t>
   </si>
   <si>
     <t xml:space="preserve">内网横向攻击:10.200.32.111(总部)
@@ -368,7 +387,7 @@
     <t>信息网络安全监控报表(9月12日-9月13日)</t>
   </si>
   <si>
-    <t>监控人员:张钰琪  李浩杰     填表人员: 张钰琪</t>
+    <t xml:space="preserve">监控人员:张钰琪  李浩杰     填表人员: 张钰琪</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.21.81.245
@@ -386,7 +405,7 @@
     <t>信息网络安全监控报表(9月6日-9月7日)</t>
   </si>
   <si>
-    <t>监控人员:张纪林  路德文       填表人员: 张纪林</t>
+    <t xml:space="preserve">监控人员:张纪林  路德文       填表人员: 张纪林</t>
   </si>
   <si>
     <t xml:space="preserve">主机感染恶意程序:172.24.43.160(总部)、172.25.29.155(总部)
@@ -394,7 +413,7 @@
 </t>
   </si>
   <si>
-    <t>win32.sality.bh 病毒
+    <t xml:space="preserve">win32.sality.bh 病毒
 正常业务</t>
   </si>
   <si>
@@ -417,10 +436,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">内网横向探测:192.168.1.64(总部)
-</t>
-  </si>
-  <si>
     <t>信息网络安全监控报表(9月8日-9月9日)</t>
   </si>
   <si>
@@ -436,13 +451,13 @@
     <t>192.168.1.64对wsp存在nmap扫描</t>
   </si>
   <si>
-    <t>172.21.23.177 、172.21.15.49  、172.21.77.137、172.21.82.179</t>
+    <t xml:space="preserve">172.21.23.177 、172.21.15.49  、172.21.77.137、172.21.82.179</t>
   </si>
   <si>
     <t>信息网络安全监控报表(9月9日-9月10日)</t>
   </si>
   <si>
-    <t>监控人员:展雪洁 李浩杰       填表人员: 李浩杰</t>
+    <t xml:space="preserve">监控人员:展雪洁 李浩杰       填表人员: 李浩杰</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.22.39.9(总部)、172.21.64.41(总部)、172.23.15.101(总部)
@@ -452,18 +467,22 @@
     <t>信息网络安全监控报表(9月11日-9月12日)</t>
   </si>
   <si>
-    <t>监控人员:张纪林  邱雪     填表人员: 张纪林</t>
+    <t xml:space="preserve">监控人员:张纪林  邱雪     填表人员: 张纪林</t>
   </si>
   <si>
     <t xml:space="preserve">主机对外攻击:172.21.23.177(总部)、172.21.3.227(总部)、172.21.82.179(总部)
 </t>
+  </si>
+  <si>
+    <t>信息网络安全监控报表(10月6日-10月7日)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,7 +670,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -659,190 +678,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,24 +1215,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="29" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="29" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="117.875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="143.75" style="29" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.875" style="29"/>
+    <col min="1" max="1" width="9.75" customWidth="1" style="29"/>
+    <col min="2" max="2" width="43.875" customWidth="1" style="29"/>
+    <col min="3" max="3" width="26.75" customWidth="1" style="29"/>
+    <col min="4" max="4" width="16" customWidth="1" style="4"/>
+    <col min="5" max="5" width="117.875" customWidth="1" style="29"/>
+    <col min="6" max="6" width="143.75" customWidth="1" style="29"/>
+    <col min="7" max="7" width="29.875" customWidth="1" style="29"/>
+    <col min="8" max="8" width="9.875" customWidth="1" style="29"/>
+    <col min="9" max="16384" width="9.875" customWidth="1" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
@@ -1224,7 +1243,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1254,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" ht="51" s="1" customFormat="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1277,7 +1296,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1296,7 +1315,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1311,7 +1330,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1328,7 +1347,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -1341,7 +1360,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -1356,7 +1375,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -1371,7 +1390,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -1386,7 +1405,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -1399,7 +1418,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -1412,7 +1431,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -1431,7 +1450,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -1442,7 +1461,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1471,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -1460,7 +1479,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -1469,7 +1488,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
@@ -1481,6 +1500,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1488,26 +1508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="117.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="143.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.875" style="3"/>
+    <col min="1" max="1" width="9.75" customWidth="1" style="3"/>
+    <col min="2" max="2" width="43.875" customWidth="1" style="3"/>
+    <col min="3" max="3" width="26.75" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16" customWidth="1" style="4"/>
+    <col min="5" max="5" width="117.875" customWidth="1" style="3"/>
+    <col min="6" max="6" width="143.75" customWidth="1" style="3"/>
+    <col min="7" max="7" width="29.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.875" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.875" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="45" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1516,9 +1536,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -1527,7 +1547,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="76.5" s="1" customFormat="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1562,14 +1582,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1581,14 +1601,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1603,7 +1623,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1620,7 +1640,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -1633,7 +1653,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -1648,7 +1668,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -1663,7 +1683,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -1678,7 +1698,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -1691,7 +1711,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -1704,7 +1724,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -1723,7 +1743,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -1734,7 +1754,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1764,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -1752,7 +1772,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -1761,7 +1781,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1774,6 +1794,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1781,26 +1802,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="117.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="143.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.875" style="3"/>
+    <col min="1" max="1" width="9.75" customWidth="1" style="3"/>
+    <col min="2" max="2" width="43.875" customWidth="1" style="3"/>
+    <col min="3" max="3" width="26.75" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16" customWidth="1" style="4"/>
+    <col min="5" max="5" width="117.875" customWidth="1" style="3"/>
+    <col min="6" max="6" width="143.75" customWidth="1" style="3"/>
+    <col min="7" max="7" width="29.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.875" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.875" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1809,7 +1830,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
@@ -1820,7 +1841,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1841,7 +1862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="25.5" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1858,7 +1879,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1870,14 +1891,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1891,7 +1912,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1908,7 +1929,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -1921,7 +1942,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1936,7 +1957,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1951,7 +1972,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1966,7 +1987,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1979,7 +2000,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1992,7 +2013,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2011,7 +2032,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -2022,7 +2043,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2053,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -2040,7 +2061,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -2049,7 +2070,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -2062,6 +2083,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2069,26 +2091,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="109.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="133.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="9" customWidth="1" style="3"/>
+    <col min="2" max="2" width="40.75" customWidth="1" style="3"/>
+    <col min="3" max="3" width="24.875" customWidth="1" style="3"/>
+    <col min="4" max="4" width="14.875" customWidth="1" style="4"/>
+    <col min="5" max="5" width="109.5" customWidth="1" style="3"/>
+    <col min="6" max="6" width="133.5" customWidth="1" style="3"/>
+    <col min="7" max="7" width="27.75" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2097,9 +2119,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2108,7 +2130,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="76.5" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2143,12 +2165,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2160,12 +2182,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2179,7 +2201,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2196,7 +2218,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -2209,7 +2231,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -2224,7 +2246,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2239,7 +2261,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -2254,7 +2276,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -2267,7 +2289,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -2280,7 +2302,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2299,7 +2321,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -2310,7 +2332,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -2320,7 +2342,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -2328,7 +2350,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -2337,7 +2359,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -2350,6 +2372,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2357,26 +2380,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="109.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="133.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="9" customWidth="1" style="3"/>
+    <col min="2" max="2" width="40.75" customWidth="1" style="3"/>
+    <col min="3" max="3" width="24.875" customWidth="1" style="3"/>
+    <col min="4" max="4" width="14.875" customWidth="1" style="4"/>
+    <col min="5" max="5" width="109.5" customWidth="1" style="3"/>
+    <col min="6" max="6" width="133.5" customWidth="1" style="3"/>
+    <col min="7" max="7" width="27.75" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2385,9 +2408,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2396,7 +2419,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" ht="51" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2431,14 +2454,14 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2450,14 +2473,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2471,7 +2494,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2485,12 +2508,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -2503,7 +2526,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -2518,7 +2541,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2533,7 +2556,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -2548,7 +2571,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -2561,7 +2584,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -2574,7 +2597,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2593,7 +2616,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -2604,7 +2627,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -2614,7 +2637,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -2622,7 +2645,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -2631,7 +2654,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -2644,6 +2667,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2651,26 +2675,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="38" zoomScaleNormal="38" workbookViewId="0">
+    <sheetView zoomScale="38" zoomScaleNormal="38" workbookViewId="0" tabSelected="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="109.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="133.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="9" customWidth="1" style="3"/>
+    <col min="2" max="2" width="40.75" customWidth="1" style="3"/>
+    <col min="3" max="3" width="24.875" customWidth="1" style="3"/>
+    <col min="4" max="4" width="14.875" customWidth="1" style="4"/>
+    <col min="5" max="5" width="109.5" customWidth="1" style="3"/>
+    <col min="6" max="6" width="133.5" customWidth="1" style="3"/>
+    <col min="7" max="7" width="27.75" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2679,9 +2703,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2690,7 +2714,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2711,7 +2735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="4" ht="102" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2725,12 +2749,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2742,12 +2766,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2761,7 +2785,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2778,7 +2802,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -2791,7 +2815,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -2806,7 +2830,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2821,7 +2845,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -2836,7 +2860,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -2849,7 +2873,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -2862,7 +2886,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2881,7 +2905,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -2892,7 +2916,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -2902,7 +2926,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -2910,7 +2934,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -2919,7 +2943,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -2932,6 +2956,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2939,26 +2964,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0" tabSelected="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="121.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="148.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.125" style="3"/>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="121.625" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2967,9 +2992,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2978,7 +3003,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2999,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="4" ht="102" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3013,14 +3038,14 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3032,14 +3057,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3053,7 +3078,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3070,7 +3095,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -3083,7 +3108,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3098,7 +3123,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" ht="51" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -3110,14 +3135,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3132,7 +3157,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -3145,7 +3170,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -3158,7 +3183,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -3177,7 +3202,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -3188,7 +3213,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -3198,7 +3223,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -3206,7 +3231,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -3215,7 +3240,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -3227,6 +3252,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3234,26 +3260,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView zoomScale="61" zoomScaleNormal="61" workbookViewId="0" tabSelected="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="121.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="148.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.125" style="3"/>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="121.625" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -3262,9 +3288,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3273,7 +3299,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3294,7 +3320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="4" ht="102" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3308,14 +3334,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3327,14 +3353,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3348,7 +3374,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="129.75" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3362,12 +3388,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -3380,7 +3406,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3395,7 +3421,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" ht="51" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -3407,14 +3433,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3429,7 +3455,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -3442,7 +3468,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -3455,7 +3481,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -3474,7 +3500,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -3485,7 +3511,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -3495,7 +3521,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -3503,7 +3529,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -3512,7 +3538,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -3524,6 +3550,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3531,26 +3558,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection activeCell="F5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="121.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="148.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.125" style="3"/>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="121.625" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -3559,9 +3586,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3570,7 +3597,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3591,7 +3618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="76.5" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3605,14 +3632,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3624,14 +3651,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3645,7 +3672,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3662,7 +3689,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -3675,7 +3702,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3690,7 +3717,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" ht="51" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -3702,14 +3729,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3724,7 +3751,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -3737,7 +3764,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -3750,7 +3777,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -3769,7 +3796,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -3780,7 +3807,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -3790,7 +3817,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -3798,7 +3825,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -3807,7 +3834,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -3820,6 +3847,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3827,24 +3855,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="121.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="148.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.125" style="3"/>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="121.625" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
@@ -3855,9 +3883,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3866,7 +3894,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3887,7 +3915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" ht="51" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3901,14 +3929,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3920,14 +3948,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3941,7 +3969,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3955,14 +3983,14 @@
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -3975,7 +4003,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3990,7 +4018,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4005,7 +4033,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4020,7 +4048,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4033,7 +4061,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -4046,7 +4074,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -4065,7 +4093,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -4076,7 +4104,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -4086,7 +4114,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -4094,7 +4122,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -4103,7 +4131,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -4116,6 +4144,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4123,24 +4152,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="121.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="148.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.125" style="3"/>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="121.625" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
@@ -4151,9 +4180,9 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -4162,7 +4191,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4183,7 +4212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="25.5" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4197,12 +4226,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4214,14 +4243,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4235,7 +4264,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.15">
+    <row r="7" ht="153" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4249,14 +4278,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -4269,7 +4298,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -4284,7 +4313,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4296,14 +4325,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4315,12 +4344,12 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4333,7 +4362,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -4346,7 +4375,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -4365,7 +4394,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -4376,7 +4405,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -4386,7 +4415,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -4394,7 +4423,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -4403,7 +4432,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -4416,6 +4445,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4423,26 +4453,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0" tabSelected="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="117.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="143.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.875" style="3"/>
+    <col min="1" max="1" width="9.75" customWidth="1" style="3"/>
+    <col min="2" max="2" width="43.875" customWidth="1" style="3"/>
+    <col min="3" max="3" width="26.75" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16" customWidth="1" style="4"/>
+    <col min="5" max="5" width="117.875" customWidth="1" style="3"/>
+    <col min="6" max="6" width="143.75" customWidth="1" style="3"/>
+    <col min="7" max="7" width="29.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.875" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.875" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="55" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -4451,9 +4481,9 @@
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -4462,7 +4492,7 @@
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -4483,7 +4513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="76.5" s="1" customFormat="1">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -4497,12 +4527,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -4517,7 +4547,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -4532,7 +4562,7 @@
       <c r="F6" s="26"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -4549,7 +4579,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="23"/>
       <c r="B8" s="61"/>
       <c r="C8" s="23" t="s">
@@ -4562,7 +4592,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4577,7 +4607,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4592,7 +4622,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4607,7 +4637,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4620,7 +4650,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4633,7 +4663,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -4652,7 +4682,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="25"/>
       <c r="B15" s="59" t="s">
         <v>26</v>
@@ -4663,7 +4693,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="52" t="s">
         <v>27</v>
@@ -4674,7 +4704,7 @@
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -4683,7 +4713,7 @@
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
     </row>
-    <row r="18" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -4693,7 +4723,7 @@
       <c r="G18" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -4705,6 +4735,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4712,24 +4743,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="121.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="148.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.125" style="3"/>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="121.625" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
@@ -4740,7 +4771,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
         <v>35</v>
       </c>
@@ -4751,7 +4782,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4772,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="76.5" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4793,7 +4824,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4812,7 +4843,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4826,7 +4857,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4843,7 +4874,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -4856,7 +4887,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -4871,7 +4902,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="76.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4890,7 +4921,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4905,7 +4936,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4918,7 +4949,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -4931,7 +4962,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -4950,7 +4981,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -4961,7 +4992,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -4971,7 +5002,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -4979,7 +5010,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -4988,7 +5019,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -5001,6 +5032,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -5008,24 +5040,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="119.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="148.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.125" style="3"/>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="119.5" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
@@ -5036,7 +5068,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="34" t="s">
         <v>29</v>
       </c>
@@ -5047,7 +5079,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -5068,7 +5100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="63" customHeight="1" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5089,7 +5121,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5108,7 +5140,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5124,7 +5156,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="126" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5145,7 +5177,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -5160,7 +5192,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -5177,7 +5209,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5194,7 +5226,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5209,7 +5241,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5222,7 +5254,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -5235,7 +5267,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -5254,7 +5286,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -5265,7 +5297,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="30" t="s">
         <v>27</v>
       </c>
@@ -5275,7 +5307,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
@@ -5283,7 +5315,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
@@ -5292,7 +5324,7 @@
       <c r="G18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -5305,6 +5337,671 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="119.5" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="76.9" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" ht="36.6" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" ht="36.6" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="63" customHeight="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="61.15" customHeight="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="86.45" customHeight="1">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="126" customHeight="1">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="42" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="25.5">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="25.5">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="111" customHeight="1">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="69" customHeight="1">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="118.9" customHeight="1">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="64.15" customHeight="1">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="36.6" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" ht="69" customHeight="1">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B16:G18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0" tabSelected="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1" style="3"/>
+    <col min="2" max="2" width="45.25" customWidth="1" style="3"/>
+    <col min="3" max="3" width="27.625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16.5" customWidth="1" style="4"/>
+    <col min="5" max="5" width="119.5" customWidth="1" style="3"/>
+    <col min="6" max="6" width="148.375" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="10.125" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="10.125" customWidth="1" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="76.9" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" ht="36.6" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" ht="36.6" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="63" customHeight="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="61.15" customHeight="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="86.45" customHeight="1">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="126" customHeight="1">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="42" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="25.5">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="25.5">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="111" customHeight="1">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="69" customHeight="1">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="118.9" customHeight="1">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="64.15" customHeight="1">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="36.6" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" ht="69" customHeight="1">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B16:G18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -5312,7 +6009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0" tabSelected="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5327,9 +6024,9 @@
     <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="35.25">
       <c r="A1" s="45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -5338,9 +6035,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" ht="27">
       <c r="A2" s="46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -5349,7 +6046,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="25.5">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -5370,7 +6067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+    <row r="4" ht="102">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5384,12 +6081,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="5" ht="25.5">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5404,7 +6101,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="25.5">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5419,7 +6116,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="25.5">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5436,7 +6133,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="25.5">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -5449,7 +6146,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -5464,7 +6161,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -5479,7 +6176,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="25.5">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -5494,7 +6191,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="25.5">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -5507,7 +6204,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="25.5">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -5520,7 +6217,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+    <row r="14" ht="102">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -5539,7 +6236,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="25.5">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -5550,7 +6247,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -5560,7 +6257,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -5568,7 +6265,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -5577,7 +6274,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -5589,6 +6286,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -5596,7 +6294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0" tabSelected="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5605,13 +6303,13 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="40.75" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1" style="21"/>
     <col min="5" max="5" width="109.5" customWidth="1"/>
     <col min="6" max="6" width="133.5" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="16" customFormat="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -5622,7 +6320,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
@@ -5633,7 +6331,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="20" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -5654,7 +6352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" ht="51" s="16" customFormat="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5675,7 +6373,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="16" customFormat="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5690,7 +6388,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="16" customFormat="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5704,7 +6402,7 @@
       <c r="E6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="16" customFormat="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5721,7 +6419,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="16" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -5734,7 +6432,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="16" customFormat="1">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -5749,7 +6447,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="16" customFormat="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -5762,7 +6460,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="16" customFormat="1">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -5777,7 +6475,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="16" customFormat="1">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -5790,7 +6488,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="16" customFormat="1">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -5803,7 +6501,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="16" customFormat="1">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -5822,7 +6520,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="16" customFormat="1">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -5833,7 +6531,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -5843,7 +6541,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -5851,7 +6549,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -5860,7 +6558,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -5872,6 +6570,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -5879,7 +6578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5888,15 +6587,15 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="40.75" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1" style="21"/>
     <col min="5" max="5" width="109.5" customWidth="1"/>
     <col min="6" max="6" width="133.5" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="16" customFormat="1">
       <c r="A1" s="45" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -5905,9 +6604,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -5916,7 +6615,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="20" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -5937,7 +6636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" ht="51" s="16" customFormat="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5951,14 +6650,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="16" customFormat="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5970,12 +6669,12 @@
         <v>2</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="16" customFormat="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5989,7 +6688,7 @@
       <c r="E6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="16" customFormat="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -6006,7 +6705,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="16" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -6019,7 +6718,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="16" customFormat="1">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -6034,7 +6733,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="16" customFormat="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -6047,7 +6746,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="16" customFormat="1">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -6062,7 +6761,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="16" customFormat="1">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -6075,7 +6774,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="16" customFormat="1">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -6088,7 +6787,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="16" customFormat="1">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -6107,7 +6806,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="16" customFormat="1">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -6118,7 +6817,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -6128,7 +6827,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -6136,7 +6835,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -6145,7 +6844,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -6157,6 +6856,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -6164,7 +6864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0" tabSelected="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6173,15 +6873,15 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="40.75" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1" style="21"/>
     <col min="5" max="5" width="109.5" customWidth="1"/>
     <col min="6" max="6" width="133.5" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="16" customFormat="1">
       <c r="A1" s="45" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -6190,9 +6890,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -6201,7 +6901,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="20" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -6222,7 +6922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" ht="51" s="16" customFormat="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -6236,14 +6936,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="16" customFormat="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -6255,14 +6955,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="16" customFormat="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -6276,7 +6976,7 @@
       <c r="E6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="16" customFormat="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -6293,7 +6993,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="16" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -6306,7 +7006,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="16" customFormat="1">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -6321,7 +7021,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="16" customFormat="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -6334,7 +7034,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="16" customFormat="1">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -6349,7 +7049,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="16" customFormat="1">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -6362,7 +7062,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="16" customFormat="1">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -6375,7 +7075,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="16" customFormat="1">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -6394,7 +7094,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="16" customFormat="1">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -6405,7 +7105,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -6415,7 +7115,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -6423,7 +7123,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -6432,7 +7132,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -6444,6 +7144,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -6451,26 +7152,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0" tabSelected="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="117.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="143.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.875" style="3"/>
+    <col min="1" max="1" width="9.75" customWidth="1" style="3"/>
+    <col min="2" max="2" width="43.875" customWidth="1" style="3"/>
+    <col min="3" max="3" width="26.75" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16" customWidth="1" style="4"/>
+    <col min="5" max="5" width="117.875" customWidth="1" style="3"/>
+    <col min="6" max="6" width="143.75" customWidth="1" style="3"/>
+    <col min="7" max="7" width="29.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.875" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.875" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="45" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -6479,9 +7180,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -6490,7 +7191,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -6511,7 +7212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="127.5" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6525,14 +7226,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6544,14 +7245,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6565,7 +7266,7 @@
       <c r="E6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6579,14 +7280,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="39"/>
       <c r="C8" s="6" t="s">
@@ -6599,7 +7300,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -6614,7 +7315,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -6629,7 +7330,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -6644,7 +7345,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -6657,7 +7358,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -6670,7 +7371,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -6689,7 +7390,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="37" t="s">
         <v>26</v>
@@ -6700,7 +7401,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -6710,7 +7411,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -6718,7 +7419,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -6727,7 +7428,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -6739,6 +7440,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6747,7 +7449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0" tabSelected="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -6762,9 +7464,9 @@
     <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="35.25">
       <c r="A1" s="45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -6773,9 +7475,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" ht="27">
       <c r="A2" s="46" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -6784,7 +7486,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="25.5">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -6805,7 +7507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="76.5">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -6819,14 +7521,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="5" ht="25.5">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -6841,7 +7543,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="25.5">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -6856,7 +7558,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="25.5">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -6873,7 +7575,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="25.5">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -6886,7 +7588,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -6901,7 +7603,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -6916,7 +7618,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="25.5">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -6931,7 +7633,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="25.5">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -6944,7 +7646,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="25.5">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -6957,7 +7659,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" ht="51">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -6976,7 +7678,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="25.5">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -6987,7 +7689,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -6997,7 +7699,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -7005,7 +7707,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -7014,7 +7716,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -7026,6 +7728,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -7033,26 +7736,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0" tabSelected="0">
       <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="117.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="143.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.875" style="3"/>
+    <col min="1" max="1" width="9.75" customWidth="1" style="3"/>
+    <col min="2" max="2" width="43.875" customWidth="1" style="3"/>
+    <col min="3" max="3" width="26.75" customWidth="1" style="3"/>
+    <col min="4" max="4" width="16" customWidth="1" style="4"/>
+    <col min="5" max="5" width="117.875" customWidth="1" style="3"/>
+    <col min="6" max="6" width="143.75" customWidth="1" style="3"/>
+    <col min="7" max="7" width="29.875" customWidth="1" style="3"/>
+    <col min="8" max="8" width="9.875" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.875" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="76.9" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="45" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -7061,9 +7764,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -7072,7 +7775,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36.6" customHeight="1" s="2" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -7093,7 +7796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" ht="51" s="1" customFormat="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -7107,14 +7810,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="61.15" customHeight="1" s="1" customFormat="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -7129,7 +7832,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.45" customHeight="1" s="1" customFormat="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -7144,7 +7847,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="75.6" customHeight="1" s="1" customFormat="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -7161,7 +7864,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" s="1" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
@@ -7174,7 +7877,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="25.5" s="1" customFormat="1">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -7189,7 +7892,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="25.5" s="1" customFormat="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -7204,7 +7907,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="111" customHeight="1" s="1" customFormat="1">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -7219,7 +7922,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="69" customHeight="1" s="1" customFormat="1">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -7232,7 +7935,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="118.9" customHeight="1" s="1" customFormat="1">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -7245,7 +7948,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.15" customHeight="1" s="1" customFormat="1">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -7264,7 +7967,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36.6" customHeight="1" s="1" customFormat="1">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -7275,7 +7978,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="42" t="s">
         <v>27</v>
       </c>
@@ -7285,7 +7988,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
@@ -7293,7 +7996,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="69" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -7302,7 +8005,7 @@
       <c r="G18" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells>
     <mergeCell ref="B16:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -7314,5 +8017,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>